--- a/CompactionAnalyzer/Analysis_output/dsfsd/cell/results_angles.xlsx
+++ b/CompactionAnalyzer/Analysis_output/dsfsd/cell/results_angles.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Angle Deviation (weighted by intensity)</t>
+          <t>Angle Deviation (weighted by coherency)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Orientation (weighted by intensity)</t>
+          <t>Orientation (weighted by coherency)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
